--- a/Resources/WGUPS Distance Table Fixed.xlsx
+++ b/Resources/WGUPS Distance Table Fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26807"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.dehoyos\Downloads\C950\New Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanef\PycharmProjects\WGUPS\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C5C3A0-8A1D-4FB3-AEAF-02E1E7B94837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6379AF9E-BC7A-451B-827D-D97AFFBF65C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,6 @@
 (84118)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5383 S 900 East #104
-(84117)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 600 E 900 South
 (84105)</t>
   </si>
@@ -261,6 +257,9 @@
   <si>
     <t>Wheeler Historic Farm 
  6351 South 900 East</t>
+  </si>
+  <si>
+    <t>5383 South 900 East #104(84117)</t>
   </si>
 </sst>
 </file>
@@ -270,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,11 +593,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,11 +935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
@@ -948,7 +947,7 @@
     <col min="4" max="29" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45" customHeight="1">
+    <row r="1" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -960,7 +959,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="14.45" customHeight="1">
+    <row r="2" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -972,7 +971,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="14.45" customHeight="1">
+    <row r="3" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -984,7 +983,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -995,22 +994,22 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
     </row>
-    <row r="5" spans="1:29" ht="14.45" customHeight="1">
+    <row r="5" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1019,41 +1018,41 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:29" ht="15.6" customHeight="1">
-      <c r="C6" s="23" t="s">
+    <row r="6" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
-    <row r="7" spans="1:29" ht="15.6" customHeight="1">
+    <row r="7" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1061,7 +1060,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:29" ht="125.25">
+    <row r="8" spans="1:29" ht="144" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
@@ -1139,18 +1138,18 @@
         <v>26</v>
       </c>
       <c r="AA8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="17" t="s">
+      <c r="AC8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AC8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:29" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="50.25">
-      <c r="A9" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>3</v>
@@ -1185,9 +1184,9 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="23.65" customHeight="1">
+    <row r="10" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>4</v>
@@ -1224,9 +1223,9 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" spans="1:29" ht="23.65" customHeight="1">
+    <row r="11" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>5</v>
@@ -1265,9 +1264,9 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="10"/>
     </row>
-    <row r="12" spans="1:29" ht="37.5">
+    <row r="12" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>6</v>
@@ -1308,9 +1307,9 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="10"/>
     </row>
-    <row r="13" spans="1:29" ht="37.5">
+    <row r="13" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>7</v>
@@ -1353,9 +1352,9 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" spans="1:29" ht="37.5">
+    <row r="14" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>8</v>
@@ -1400,9 +1399,9 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="10"/>
     </row>
-    <row r="15" spans="1:29" ht="37.5">
+    <row r="15" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>9</v>
@@ -1449,9 +1448,9 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="10"/>
     </row>
-    <row r="16" spans="1:29" ht="23.65" customHeight="1">
+    <row r="16" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>10</v>
@@ -1500,9 +1499,9 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="10"/>
     </row>
-    <row r="17" spans="1:29" ht="23.65" customHeight="1">
+    <row r="17" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>11</v>
@@ -1553,9 +1552,9 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="10"/>
     </row>
-    <row r="18" spans="1:29" ht="23.65" customHeight="1">
+    <row r="18" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>12</v>
@@ -1608,9 +1607,9 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="10"/>
     </row>
-    <row r="19" spans="1:29" ht="23.65" customHeight="1">
+    <row r="19" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>13</v>
@@ -1665,9 +1664,9 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="10"/>
     </row>
-    <row r="20" spans="1:29" ht="23.65" customHeight="1">
+    <row r="20" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>14</v>
@@ -1724,9 +1723,9 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="10"/>
     </row>
-    <row r="21" spans="1:29" ht="23.65" customHeight="1">
+    <row r="21" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>15</v>
@@ -1785,9 +1784,9 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="10"/>
     </row>
-    <row r="22" spans="1:29" ht="23.65" customHeight="1">
+    <row r="22" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>16</v>
@@ -1848,9 +1847,9 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" spans="1:29" ht="36" customHeight="1">
+    <row r="23" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>17</v>
@@ -1913,9 +1912,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="10"/>
     </row>
-    <row r="24" spans="1:29" ht="36" customHeight="1">
+    <row r="24" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>18</v>
@@ -1980,9 +1979,9 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" spans="1:29" ht="37.5">
+    <row r="25" spans="1:29" ht="48" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>19</v>
@@ -2049,9 +2048,9 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="10"/>
     </row>
-    <row r="26" spans="1:29" ht="37.5">
+    <row r="26" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>20</v>
@@ -2120,9 +2119,9 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" spans="1:29" ht="37.5">
+    <row r="27" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -2193,9 +2192,9 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="10"/>
     </row>
-    <row r="28" spans="1:29" ht="23.65" customHeight="1">
+    <row r="28" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>22</v>
@@ -2268,9 +2267,9 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="10"/>
     </row>
-    <row r="29" spans="1:29" ht="37.5">
+    <row r="29" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>23</v>
@@ -2345,9 +2344,9 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="10"/>
     </row>
-    <row r="30" spans="1:29" ht="23.65" customHeight="1">
+    <row r="30" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>24</v>
@@ -2424,9 +2423,9 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31" spans="1:29" ht="23.65" customHeight="1">
+    <row r="31" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>25</v>
@@ -2505,9 +2504,9 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="10"/>
     </row>
-    <row r="32" spans="1:29" ht="37.5">
+    <row r="32" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>26</v>
@@ -2588,12 +2587,12 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="10"/>
     </row>
-    <row r="33" spans="1:29" ht="23.65" customHeight="1">
+    <row r="33" spans="1:29" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5">
         <v>2.4</v>
@@ -2673,12 +2672,12 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="10"/>
     </row>
-    <row r="34" spans="1:29" ht="24.75">
+    <row r="34" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="5">
         <v>5</v>
@@ -2760,12 +2759,12 @@
       </c>
       <c r="AC34" s="10"/>
     </row>
-    <row r="35" spans="1:29" ht="23.65" customHeight="1" thickBot="1">
+    <row r="35" spans="1:29" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="11">
         <v>3.6</v>
@@ -2862,6 +2861,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C39F2A75005F2D43B30369DAED2CCB1C" ma:contentTypeVersion="51" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dca2bb0f68bdf94cc5f80c9292ca56b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0feec74c-ecc7-44c3-9c64-3623cf89ed41" xmlns:ns3="1f707338-ea0f-4fe5-baee-59b996692b22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4cb8629785915e947a4406c57312ba8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3371,15 +3379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3430,13 +3429,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346B5534-CC83-47DD-8523-BB97FB1B43B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51ED99C8-D91C-4521-83EC-2A0A02D58674}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51ED99C8-D91C-4521-83EC-2A0A02D58674}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346B5534-CC83-47DD-8523-BB97FB1B43B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0feec74c-ecc7-44c3-9c64-3623cf89ed41"/>
+    <ds:schemaRef ds:uri="1f707338-ea0f-4fe5-baee-59b996692b22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC12B168-B9E1-4151-98F9-C97DA1AB8BBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC12B168-B9E1-4151-98F9-C97DA1AB8BBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0feec74c-ecc7-44c3-9c64-3623cf89ed41"/>
+    <ds:schemaRef ds:uri="1f707338-ea0f-4fe5-baee-59b996692b22"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>